--- a/Homecenters-Equiv-ECU/homecentersXLS.xlsx
+++ b/Homecenters-Equiv-ECU/homecentersXLS.xlsx
@@ -1,82 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romero\Desktop\Repositorios\analytics\Homecenters-Equiv-MX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NECSOFT.DESKTOP-8HDOFC5\Desktop\Repositorios\analytics\Homecenters-Equiv-ECU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342F404-310B-4CB2-B451-96926FC0B411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F9566-DE0D-4EA2-AFDA-5C7978BA6125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Calz. del Hueso 670, Coapa, Los Robles, Coyoacán, 04870 Ciudad de México, CDMX, México</t>
-  </si>
-  <si>
-    <t>Canal de Miramontes 2053, Coapa, Girasoles III, Coyoacán, 04920 Ciudad de México, CDMX, México</t>
-  </si>
-  <si>
-    <t>Eje 10 Sur 546, Los Reyes, Coyoacán, 04330 Coyoacan, CDMX, México</t>
-  </si>
-  <si>
-    <t>Av. San Jerónimo esq, Periferico Sur 630, La Otra Banda, 01090 Del. Álvaro Obregón, CDMX, México</t>
-  </si>
-  <si>
-    <t>Av. Central Alta Tensión Del, Alfonso XIII, 01460 Ciudad de México, México</t>
-  </si>
-  <si>
-    <t>Prolongacion Paseo de la Reforma 400, Santa Fe, Zedec Sta Fé, Álvaro Obregón, 01210 Ciudad de México, CDMX, México</t>
-  </si>
-  <si>
-    <t>Av. del Taller #370, 24 de Abril, Venustiano Carranza, 15980 Ciudad de México, CDMX, México</t>
-  </si>
-  <si>
-    <t>Anillo Perif. 2141, Chinam Pac de Juárez, Iztapalapa, 09208 Ciudad de México, CDMX, México</t>
-  </si>
-  <si>
-    <t>Av. Jardin 245, San Francisco Xocotitla, Azcapotzalco, 02860 Ciudad de México, CDMX, México</t>
-  </si>
-  <si>
-    <t>Av Fortuna 334, Magdalena de las Salinas, Gustavo A. Madero, 07760 Ciudad de México, CDMX, México</t>
-  </si>
-  <si>
-    <t>Av. Lomas Verdes esq Periférico 904, Norte Col, Sta Cruz Acatlan, 53150 Naucalpan de Juárez, Méx., México</t>
-  </si>
-  <si>
-    <t>Autopista México - Querétaro 3000, Valle Dorado, Hab los Pirules, 54040 Tlalnepantla de Baz, Méx., México</t>
-  </si>
-  <si>
-    <t>Av. Bosque Esmeralda Ote. #1, Bosque Esmeralda, 52930 Cd López Mateos, Méx., México</t>
-  </si>
-  <si>
-    <t>Multiplaza Aragón, Av. Carlos Hank González 120, Rinconada de Aragon, 55140 Ecatepec de Morelos, Méx., México</t>
-  </si>
-  <si>
-    <t>Avenida Hacienda De Xalpa Fraccionamento, 1, Hacienda del Parque, 54769 Cuautitlán Izcalli, Méx., México</t>
-  </si>
-  <si>
-    <t>Vía López Portillo #105Col, Zacuatitla, 55700 San Francisco Coacalco, Méx., México</t>
-  </si>
-  <si>
-    <t>Carr. México-Querétaro esq, Av Chalma Col, Jardines de la Hacienda, 54720 Cuautitlán Izcalli, Méx., México</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -90,55 +48,58 @@
     <t>lng</t>
   </si>
   <si>
-    <t>Coapa</t>
-  </si>
-  <si>
-    <t>Miramontes</t>
-  </si>
-  <si>
-    <t>Los Reyes Coyacan</t>
-  </si>
-  <si>
-    <t>San Jeronimo</t>
-  </si>
-  <si>
-    <t>Av Central</t>
-  </si>
-  <si>
-    <t>Patio Santa fe</t>
-  </si>
-  <si>
-    <t>Mexico Centro</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Jardin</t>
-  </si>
-  <si>
-    <t>Fortuna</t>
-  </si>
-  <si>
-    <t>Lomas verdes</t>
-  </si>
-  <si>
-    <t>Autopista Mexico</t>
-  </si>
-  <si>
-    <t>Esmeralda Atizapan</t>
-  </si>
-  <si>
-    <t>Aragon Ecatepec</t>
-  </si>
-  <si>
-    <t>Hacienda Xalpa</t>
-  </si>
-  <si>
-    <t>Coacalco</t>
-  </si>
-  <si>
-    <t>Cauutitlan Izcalli</t>
+    <t>Av. Gral. Rumiñahui 840,</t>
+  </si>
+  <si>
+    <t>San Rafael</t>
+  </si>
+  <si>
+    <t>Av. Moran Valverde 1000</t>
+  </si>
+  <si>
+    <t>Av. Pedro Vicente Maldonado S11-122</t>
+  </si>
+  <si>
+    <t>Av. 10 de Agosto N24-59 y, Quito 170129, Ecuador</t>
+  </si>
+  <si>
+    <t>Av. 6 de Diciembre N52-72, Quito 170504, Ecuador</t>
+  </si>
+  <si>
+    <t>Av. Oswaldo Guayasamin, Quito 170184, Ecuador</t>
+  </si>
+  <si>
+    <t>Centro Comercial Mega Kywi, Local 1, Av. Eloy Alfaro, Quito 170124, Ecuador</t>
+  </si>
+  <si>
+    <t>C.C. Portal Shopping, Av. Libertador, Quito 170209, Ecuador</t>
+  </si>
+  <si>
+    <t>Los Chillos</t>
+  </si>
+  <si>
+    <t>San rafaek</t>
+  </si>
+  <si>
+    <t>C.C. Quicentro Sur</t>
+  </si>
+  <si>
+    <t>El recreo</t>
+  </si>
+  <si>
+    <t>centro ferretero</t>
+  </si>
+  <si>
+    <t>CC Olimpico</t>
+  </si>
+  <si>
+    <t>Tumbaco</t>
+  </si>
+  <si>
+    <t>CC Mega Kywi</t>
+  </si>
+  <si>
+    <t>Portal shopping</t>
   </si>
 </sst>
 </file>
@@ -456,264 +417,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>19.302738300000001</v>
+        <v>-0.30851119999999999</v>
       </c>
       <c r="D2">
-        <v>-99.118471999999997</v>
+        <v>-78.447144699999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>19.308937100000001</v>
+        <v>-0.30260510000000002</v>
       </c>
       <c r="D3">
-        <v>-99.124397299999998</v>
+        <v>-78.456301100000005</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>19.335556799999999</v>
+        <v>-0.2849178</v>
       </c>
       <c r="D4">
-        <v>-99.157461400000003</v>
+        <v>-78.543316700000005</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>19.328321500000001</v>
+        <v>-0.2533012</v>
       </c>
       <c r="D5">
-        <v>-99.209973899999994</v>
+        <v>-78.522902599999995</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>19.3779413</v>
+        <v>-0.1990092</v>
       </c>
       <c r="D6">
-        <v>-99.199910900000006</v>
+        <v>-78.496841799999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>19.3774649</v>
+        <v>-0.17438119999999999</v>
       </c>
       <c r="D7">
-        <v>-99.2535788</v>
+        <v>-78.479149300000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>19.4149545</v>
+        <v>-0.2157731</v>
       </c>
       <c r="D8">
-        <v>-99.116877500000001</v>
+        <v>-78.395400899999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>19.379404600000001</v>
+        <v>-0.13858500000000001</v>
       </c>
       <c r="D9">
-        <v>-99.058672200000004</v>
+        <v>-78.469387499999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>19.4642269</v>
+        <v>-0.1077935</v>
       </c>
       <c r="D10">
-        <v>-99.160128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>19.483437299999999</v>
-      </c>
-      <c r="D11">
-        <v>-99.133495699999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>19.485833100000001</v>
-      </c>
-      <c r="D12">
-        <v>-99.236999800000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>19.545637800000002</v>
-      </c>
-      <c r="D13">
-        <v>-99.212284600000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>19.548519800000001</v>
-      </c>
-      <c r="D14">
-        <v>-99.289159499999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>19.5296035</v>
-      </c>
-      <c r="D15">
-        <v>-99.028388199999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>19.605360000000001</v>
-      </c>
-      <c r="D16">
-        <v>-99.190948000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>19.635825499999999</v>
-      </c>
-      <c r="D17">
-        <v>-99.097057100000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>19.671167100000002</v>
-      </c>
-      <c r="D18">
-        <v>-99.208010900000005</v>
+        <v>-78.458426099999997</v>
       </c>
     </row>
   </sheetData>
